--- a/G06_E1_Customer_Order_Data.xlsx
+++ b/G06_E1_Customer_Order_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0978\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c630e1c646c75da7/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A264CF4-3D42-440D-AF96-32A2790A9959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3A264CF4-3D42-440D-AF96-32A2790A9959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D3C8C28-B9BC-460D-9CEB-E33E73EA037E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -590,10 +590,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Nan_Zhou@Ygbedroom.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1268,6 +1264,10 @@
   </si>
   <si>
     <t>2025/05/13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nan_Zhou@Ybedroom.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1467,7 +1467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1541,6 +1541,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1886,7 +1896,7 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2137,8 +2147,8 @@
   </sheetPr>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2211,7 @@
         <v>22</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>23</v>
@@ -2215,16 +2225,16 @@
         <v>112</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>90</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="11">
         <v>101</v>
@@ -2236,13 +2246,13 @@
         <v>123</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>117</v>
@@ -2268,10 +2278,10 @@
         <v>90</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3" s="11">
         <v>151</v>
@@ -2283,13 +2293,13 @@
         <v>124</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>24</v>
@@ -2315,10 +2325,10 @@
         <v>90</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="11">
         <v>201</v>
@@ -2330,13 +2340,13 @@
         <v>125</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>117</v>
@@ -2349,49 +2359,49 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="F5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="4">
         <v>202</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="11" t="s">
+      <c r="I5" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="4">
         <v>32000</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="32">
         <v>42095</v>
       </c>
     </row>
@@ -2403,16 +2413,16 @@
         <v>111</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>90</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="11">
         <v>203</v>
@@ -2424,13 +2434,13 @@
         <v>126</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>24</v>
@@ -2445,6 +2455,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2499,62 +2510,62 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>90</v>
@@ -2569,62 +2580,62 @@
         <v>90</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2744,10 +2755,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>75</v>
@@ -2762,7 +2773,7 @@
         <v>632</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>34</v>
@@ -2776,10 +2787,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>75</v>
@@ -2794,7 +2805,7 @@
         <v>632</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>34</v>
@@ -2808,13 +2819,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>72</v>
@@ -2826,7 +2837,7 @@
         <v>648</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>35</v>
@@ -2840,16 +2851,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>67</v>
@@ -2858,7 +2869,7 @@
         <v>520</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>34</v>
@@ -2872,10 +2883,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>74</v>
@@ -2890,7 +2901,7 @@
         <v>524</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>33</v>
@@ -2940,7 +2951,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>106</v>
@@ -2951,7 +2962,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>107</v>
@@ -2962,7 +2973,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
@@ -2973,7 +2984,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>108</v>
@@ -2984,7 +2995,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>110</v>
@@ -2995,7 +3006,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>110</v>
@@ -3006,7 +3017,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>109</v>
@@ -3048,15 +3059,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>45</v>
@@ -3064,7 +3075,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>44</v>
@@ -3072,18 +3083,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3110,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -3146,10 +3157,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="11">
         <v>700</v>
@@ -3172,10 +3183,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="11">
         <v>1280</v>
@@ -3198,10 +3209,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="11">
         <v>3000</v>
@@ -3224,10 +3235,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="11">
         <v>800</v>
@@ -3250,10 +3261,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="11">
         <v>1300</v>
@@ -3273,7 +3284,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H7" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3314,7 +3325,7 @@
         <v>57</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>58</v>
@@ -3334,19 +3345,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="11">
         <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>106</v>
@@ -3355,24 +3366,24 @@
         <v>98</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="11">
         <v>12</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>107</v>
@@ -3381,24 +3392,24 @@
         <v>98</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="11">
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>108</v>
@@ -3407,24 +3418,24 @@
         <v>98</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="11">
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>108</v>
@@ -3433,24 +3444,24 @@
         <v>99</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="11">
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>110</v>
@@ -3459,12 +3470,12 @@
         <v>100</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
@@ -3473,10 +3484,10 @@
         <v>59</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>110</v>
@@ -3485,12 +3496,12 @@
         <v>99</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
@@ -3499,10 +3510,10 @@
         <v>59</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>109</v>
@@ -3511,7 +3522,7 @@
         <v>99</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3569,42 +3580,42 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
